--- a/biology/Médecine/Guy_Rosolato/Guy_Rosolato.xlsx
+++ b/biology/Médecine/Guy_Rosolato/Guy_Rosolato.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guy Rosolato, né le 29 janvier 1924 à Constantinople, et mort le 6 mars 2012[1] à Paris, est un psychiatre et un psychanalyste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guy Rosolato, né le 29 janvier 1924 à Constantinople, et mort le 6 mars 2012 à Paris, est un psychiatre et un psychanalyste français.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guy Rosolato est né à Constantinople, dans une famille française originaire de la région lyonnaise venue faire de la sériciculture en Turquie. Il commence ses études de médecine à Beyrouth, puis les interrompt pour s'engager en 1944, dans les Forces françaises libres comme infirmier dans un bataillon de Sénégalais[2].
-Il poursuit ses études de médecine à Paris, s'oriente vers la psychiatrie en 1953 et devient chef de clinique dans le service du professeur Jean Delay. En 1957, il soutient sa thèse de médecine intitulée « Références psychopathologiques du surréalisme ». C'est pendant son internat à l'hôpital Sainte-Anne qu'il noue des liens d'amitié notamment avec André Green, Roger Misès, Conrad Stein, et notamment Serge Leclaire qui lui fait connaître Jacques Lacan. L'hôpital Sainte-Anne est « alors une pépinière, fréquentée par tout ce qui compte, ou comptera, dans le domaine de la psychiatrie et celui de la psychanalyse ». Henri Ey, rapporte Jean-Claude Arfouilloux, est, à ce moment-là, « un maître incontesté pour les jeunes psychiatres de la génération de Rosolato »[3]. Il organise les « Journées de Bonneval » à l’hôpital psychiatrique dont il est médecin-chef[4] et dirige la revue L'Évolution psychiatrique, qui attribue son prix 1956 à Guy Rosolato, pour sa conférence intitulée « Sémantique et altérations du langage ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guy Rosolato est né à Constantinople, dans une famille française originaire de la région lyonnaise venue faire de la sériciculture en Turquie. Il commence ses études de médecine à Beyrouth, puis les interrompt pour s'engager en 1944, dans les Forces françaises libres comme infirmier dans un bataillon de Sénégalais.
+Il poursuit ses études de médecine à Paris, s'oriente vers la psychiatrie en 1953 et devient chef de clinique dans le service du professeur Jean Delay. En 1957, il soutient sa thèse de médecine intitulée « Références psychopathologiques du surréalisme ». C'est pendant son internat à l'hôpital Sainte-Anne qu'il noue des liens d'amitié notamment avec André Green, Roger Misès, Conrad Stein, et notamment Serge Leclaire qui lui fait connaître Jacques Lacan. L'hôpital Sainte-Anne est « alors une pépinière, fréquentée par tout ce qui compte, ou comptera, dans le domaine de la psychiatrie et celui de la psychanalyse ». Henri Ey, rapporte Jean-Claude Arfouilloux, est, à ce moment-là, « un maître incontesté pour les jeunes psychiatres de la génération de Rosolato ». Il organise les « Journées de Bonneval » à l’hôpital psychiatrique dont il est médecin-chef et dirige la revue L'Évolution psychiatrique, qui attribue son prix 1956 à Guy Rosolato, pour sa conférence intitulée « Sémantique et altérations du langage ».
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>La psychanalyse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'intéresse à la psychanalyse et fait une analyse avec Jacques Lacan (1954-1964). Il rejoint la Société française de psychanalyse puis, avec Piera Aulagnier, Serge Leclaire, et Jean Clavreul, il participe en 1964 à la fondation de l’École freudienne de Paris. Mais il s'oppose à ce qu'il considère comme une dérive autoritaire de Lacan[2], et rejoint, dès 1967, l'Association psychanalytique de France. Tout en restant lacanien, il a été « l'un de ceux qui se sont dégagés de l'influence directe du Maître »[5]. Il a été l'une figure marquante de l'Association psychanalytique de France, qu'il préside de 1977 à 1979.
-Lors de sa disparition, l'historienne Élisabeth Roudinesco écrit de lui qu'il était un « freudien original et parfois déroutant[2]. » Dans le journal Libération, le psychanalyste Jean-Michel Hirt rend hommage à la « perspective Rosolato »[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'intéresse à la psychanalyse et fait une analyse avec Jacques Lacan (1954-1964). Il rejoint la Société française de psychanalyse puis, avec Piera Aulagnier, Serge Leclaire, et Jean Clavreul, il participe en 1964 à la fondation de l’École freudienne de Paris. Mais il s'oppose à ce qu'il considère comme une dérive autoritaire de Lacan, et rejoint, dès 1967, l'Association psychanalytique de France. Tout en restant lacanien, il a été « l'un de ceux qui se sont dégagés de l'influence directe du Maître ». Il a été l'une figure marquante de l'Association psychanalytique de France, qu'il préside de 1977 à 1979.
+Lors de sa disparition, l'historienne Élisabeth Roudinesco écrit de lui qu'il était un « freudien original et parfois déroutant. » Dans le journal Libération, le psychanalyste Jean-Michel Hirt rend hommage à la « perspective Rosolato ».
 </t>
         </is>
       </c>
@@ -577,16 +593,55 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Livres
-Essais sur le symbolique, Paris, Gallimard, 1969.  (ISBN 978-2070285921)
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Essais sur le symbolique, Paris, Gallimard, 1969.  (ISBN 978-2070285921)
 La relation d’inconnu, Paris, Gallimard, 1978.  (ISBN 978-2070298952)
 Éléments de l'interprétation, Paris, Gallimard, 1985.  (ISBN 978-2070703333)
 Le sacrifice : repères psychanalytiques, Paris, Gallimard, 1987.  (ISBN 978-2-13-053038-1)
 Pour une psychanalyse exploratrice dans la culture, Paris, Gallimard, 1993.  (ISBN 2-13-044732-5)
 La portée du désir: ou la psychanalyse même, Paris, PUF, 1996.  (ISBN 2-13-047890-5)
-Les cinq axes de la psychanalyse, Paris, PUF, 1999.  (ISBN 978-2130502746)
-Autres textes
-« Sémantique et altérations du langage », L'Évolution psychiatrique, 20, no 4, p. 867-899.
+Les cinq axes de la psychanalyse, Paris, PUF, 1999.  (ISBN 978-2130502746)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Guy_Rosolato</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guy_Rosolato</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres textes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>« Sémantique et altérations du langage », L'Évolution psychiatrique, 20, no 4, p. 867-899.
 « Références psychopathologiques du surréalisme », thèse de médecine, Paris, 1957.
 « Étude des perversions sexuelles à partir du fétichisme » dans Le désir et la perversion, ouvrage collectif avec Piera Aulagnier, Jean Clavreul, François Perrier et Jean-Paul Valabrega, Paris, Seuil, 1967, p. 7-53  (ISBN 978-2020057738).
 « L'hystérie, névrose d'inconnu », Topique, no  41, 1988, p. 19-47.
